--- a/FCF/Configurazioni/Configurazione_Start_Run_CashFlow.xlsx
+++ b/FCF/Configurazioni/Configurazione_Start_Run_CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\file_caricamento\FCF\Configurazioni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\FCF\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49369A12-0D91-47D3-AFF4-ACF535671081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CED73B-552C-4E4E-9902-16A482211AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,7 @@
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,11 +423,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -449,12 +449,12 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/FCF/Configurazioni/Configurazione_Start_Run_CashFlow.xlsx
+++ b/FCF/Configurazioni/Configurazione_Start_Run_CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\FCF\Configurazioni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbasilico\Desktop\file_caricamento\FCF\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CED73B-552C-4E4E-9902-16A482211AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB581D1E-4EC5-4FB5-8311-0F8A5DB9CF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28440" yWindow="6330" windowWidth="26775" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>PUNTAMENTO_ID_RUN</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>-- altrimenti: per puntamento_id_run l'id_run FCF1 a cui vogliamo puntare e per vista_forecast_cashflow il nome del backup della vista previsiva FCF1</t>
+  </si>
+  <si>
+    <t>DATA_REPERFORMING</t>
   </si>
 </sst>
 </file>
@@ -384,24 +387,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,11 +427,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -449,12 +456,12 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/FCF/Configurazioni/Configurazione_Start_Run_CashFlow.xlsx
+++ b/FCF/Configurazioni/Configurazione_Start_Run_CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbasilico\Desktop\file_caricamento\FCF\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB581D1E-4EC5-4FB5-8311-0F8A5DB9CF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB38A2-7E50-4218-830E-3541CCD76CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28440" yWindow="6330" windowWidth="26775" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28260" yWindow="1470" windowWidth="24570" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>PUNTAMENTO_ID_RUN</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>-- altrimenti: per puntamento_id_run l'id_run FCF1 a cui vogliamo puntare e per vista_forecast_cashflow il nome del backup della vista previsiva FCF1</t>
-  </si>
-  <si>
-    <t>DATA_REPERFORMING</t>
   </si>
 </sst>
 </file>
@@ -390,7 +387,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,9 +424,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>

--- a/FCF/Configurazioni/Configurazione_Start_Run_CashFlow.xlsx
+++ b/FCF/Configurazioni/Configurazione_Start_Run_CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbasilico\Desktop\file_caricamento\FCF\Configurazioni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\FCF\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB38A2-7E50-4218-830E-3541CCD76CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B143643B-BA60-41CD-A94B-765AEB720273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28260" yWindow="1470" windowWidth="24570" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>PUNTAMENTO_ID_RUN</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>-- altrimenti: per puntamento_id_run l'id_run FCF1 a cui vogliamo puntare e per vista_forecast_cashflow il nome del backup della vista previsiva FCF1</t>
+  </si>
+  <si>
+    <t>data_forzatura_storico</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -101,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -387,22 +394,22 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,12 +431,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -451,11 +460,14 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>10</v>
       </c>
